--- a/tornado_server/db_config/data.xlsx
+++ b/tornado_server/db_config/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesse/Documents/github_project/zip_status_board/tornado_server/db_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156132E7-C551-A44F-8641-F1F6E285BF96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD040145-1CDA-FB40-86C1-DCF79C6EBE8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4760" yWindow="2340" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{215CD961-92A3-6044-91B4-F26F0E036033}"/>
   </bookViews>
@@ -59,19 +59,19 @@
     <t>problem_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Tail assembly loose </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left tail outboard servo needs to be checked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broken left wing tip on recovery </t>
-  </si>
-  <si>
     <t>resolved</t>
   </si>
   <si>
     <t>non_blocking</t>
+  </si>
+  <si>
+    <t>Tail assembly loose</t>
+  </si>
+  <si>
+    <t>Left tail outboard servo needs to be checked</t>
+  </si>
+  <si>
+    <t>Broken left wing tip on recovery</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
